--- a/experiment/computation_report_gaps.xlsx
+++ b/experiment/computation_report_gaps.xlsx
@@ -314,6 +314,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -402,13 +403,13 @@
   <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
@@ -435,6 +436,9 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="0" t="n">
+        <v>7.0981</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -443,6 +447,9 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="0" t="n">
+        <v>7.088</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -451,6 +458,9 @@
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C4" s="0" t="n">
+        <v>7.0057</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -459,6 +469,9 @@
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C5" s="0" t="n">
+        <v>7.1557</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -467,6 +480,9 @@
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C6" s="0" t="n">
+        <v>10.1957</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -475,6 +491,9 @@
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C7" s="0" t="n">
+        <v>13.5766</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -483,6 +502,9 @@
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C8" s="0" t="n">
+        <v>15.9901</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -491,6 +513,9 @@
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C9" s="0" t="n">
+        <v>21998.5771</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -499,6 +524,9 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C10" s="0" t="n">
+        <v>33021.8754</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -507,6 +535,9 @@
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C11" s="0" t="n">
+        <v>42881.3344</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -515,6 +546,9 @@
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C12" s="0" t="n">
+        <v>81804.2305</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -523,6 +557,9 @@
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C13" s="0" t="n">
+        <v>2.5067</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -531,6 +568,9 @@
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C14" s="0" t="n">
+        <v>2.6038</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -539,6 +579,9 @@
       <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="C15" s="0" t="n">
+        <v>2.5596</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -547,6 +590,9 @@
       <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="C16" s="0" t="n">
+        <v>1.8785</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -555,6 +601,9 @@
       <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="C17" s="0" t="n">
+        <v>1.977</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -563,6 +612,9 @@
       <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="C18" s="0" t="n">
+        <v>1.9907</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -571,6 +623,9 @@
       <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="C19" s="0" t="n">
+        <v>6.9054</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -579,6 +634,9 @@
       <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="C20" s="0" t="n">
+        <v>6.8638</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -587,6 +645,9 @@
       <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="C21" s="0" t="n">
+        <v>6.7045</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -595,6 +656,9 @@
       <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="C22" s="0" t="n">
+        <v>2.6385</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -603,6 +667,9 @@
       <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="C23" s="0" t="n">
+        <v>2.9261</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -611,6 +678,9 @@
       <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="C24" s="0" t="n">
+        <v>2.8334</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -619,6 +689,9 @@
       <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C25" s="0" t="n">
+        <v>3.7719</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -627,6 +700,9 @@
       <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C26" s="0" t="n">
+        <v>8.4335</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -635,6 +711,9 @@
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C27" s="0" t="n">
+        <v>9.9461</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -643,6 +722,9 @@
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C28" s="0" t="n">
+        <v>9.9584</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -651,6 +733,9 @@
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C29" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -659,6 +744,9 @@
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C30" s="0" t="n">
+        <v>0.0134</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
@@ -667,6 +755,9 @@
       <c r="B31" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C31" s="0" t="n">
+        <v>0.0032</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -675,6 +766,9 @@
       <c r="B32" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C32" s="0" t="n">
+        <v>0.0008</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
@@ -683,6 +777,9 @@
       <c r="B33" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C33" s="0" t="n">
+        <v>4.1047</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
@@ -691,6 +788,9 @@
       <c r="B34" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C34" s="0" t="n">
+        <v>5.2323</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -699,6 +799,9 @@
       <c r="B35" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C35" s="0" t="n">
+        <v>3.0663</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
@@ -707,6 +810,9 @@
       <c r="B36" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C36" s="0" t="n">
+        <v>2.5312</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
@@ -715,6 +821,9 @@
       <c r="B37" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C37" s="0" t="n">
+        <v>16.3296</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
@@ -723,6 +832,9 @@
       <c r="B38" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C38" s="0" t="n">
+        <v>11.8254</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
@@ -731,6 +843,9 @@
       <c r="B39" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C39" s="0" t="n">
+        <v>4.3235</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
@@ -739,6 +854,9 @@
       <c r="B40" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C40" s="0" t="n">
+        <v>13.1433</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -747,6 +865,9 @@
       <c r="B41" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C41" s="0" t="n">
+        <v>11.7475</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
@@ -755,6 +876,9 @@
       <c r="B42" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C42" s="0" t="n">
+        <v>25.7577</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
@@ -763,6 +887,9 @@
       <c r="B43" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C43" s="0" t="n">
+        <v>41.9218</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
@@ -771,6 +898,9 @@
       <c r="B44" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="C44" s="0" t="n">
+        <v>0.1502</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -779,6 +909,9 @@
       <c r="B45" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="C45" s="0" t="n">
+        <v>0.1765</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
@@ -787,6 +920,9 @@
       <c r="B46" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="C46" s="0" t="n">
+        <v>0.1732</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
@@ -795,6 +931,9 @@
       <c r="B47" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="C47" s="0" t="n">
+        <v>0.159</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
@@ -803,6 +942,9 @@
       <c r="B48" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="C48" s="0" t="n">
+        <v>0.1731</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
@@ -811,6 +953,9 @@
       <c r="B49" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C49" s="0" t="n">
+        <v>9.7259</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
@@ -819,6 +964,9 @@
       <c r="B50" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C50" s="0" t="n">
+        <v>11.8605</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
@@ -827,6 +975,9 @@
       <c r="B51" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C51" s="0" t="n">
+        <v>5.8936</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
@@ -835,6 +986,9 @@
       <c r="B52" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C52" s="0" t="n">
+        <v>5.0168</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
@@ -843,6 +997,9 @@
       <c r="B53" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C53" s="0" t="n">
+        <v>5.3003</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
@@ -851,6 +1008,9 @@
       <c r="B54" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C54" s="0" t="n">
+        <v>6.6626</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
@@ -859,6 +1019,9 @@
       <c r="B55" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C55" s="0" t="n">
+        <v>5.7701</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
@@ -867,6 +1030,9 @@
       <c r="B56" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C56" s="0" t="n">
+        <v>5.7491</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
@@ -875,6 +1041,9 @@
       <c r="B57" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C57" s="0" t="n">
+        <v>5.9152</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
@@ -883,6 +1052,9 @@
       <c r="B58" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C58" s="0" t="n">
+        <v>6.9322</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
@@ -891,6 +1063,9 @@
       <c r="B59" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C59" s="0" t="n">
+        <v>4.8343</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
@@ -899,6 +1074,9 @@
       <c r="B60" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="C60" s="0" t="n">
+        <v>4.8945</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
@@ -907,6 +1085,9 @@
       <c r="B61" s="0" t="n">
         <v>3.02</v>
       </c>
+      <c r="C61" s="0" t="n">
+        <v>1.652</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
@@ -915,6 +1096,9 @@
       <c r="B62" s="0" t="n">
         <v>2.18</v>
       </c>
+      <c r="C62" s="0" t="n">
+        <v>1.003</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
@@ -923,6 +1107,9 @@
       <c r="B63" s="0" t="n">
         <v>2.09</v>
       </c>
+      <c r="C63" s="0" t="n">
+        <v>2.0932</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
@@ -931,6 +1118,9 @@
       <c r="B64" s="0" t="n">
         <v>1.5</v>
       </c>
+      <c r="C64" s="0" t="n">
+        <v>3.7945</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
@@ -939,6 +1129,9 @@
       <c r="B65" s="0" t="n">
         <v>3.42</v>
       </c>
+      <c r="C65" s="0" t="n">
+        <v>0.9669</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
@@ -947,6 +1140,9 @@
       <c r="B66" s="0" t="n">
         <v>3.73</v>
       </c>
+      <c r="C66" s="0" t="n">
+        <v>1.1771</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
@@ -955,6 +1151,9 @@
       <c r="B67" s="0" t="n">
         <v>3.2</v>
       </c>
+      <c r="C67" s="0" t="n">
+        <v>3.0429</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
@@ -962,6 +1161,9 @@
       </c>
       <c r="B68" s="0" t="n">
         <v>2.8</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>4.8868</v>
       </c>
     </row>
   </sheetData>
